--- a/listSODEFOR.xlsx
+++ b/listSODEFOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inphb-my.sharepoint.com/personal/anicet_kambou_inphb_ci/Documents/pfe Zana/f4f/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive - INP-HB\f4f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{A7B60E1A-B3A0-4395-9C8D-2D23CCB03D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C2FAAD-9084-4CD1-B849-E578AAB51F80}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA42A2-472F-4975-86A2-02B143DE43EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11775" activeTab="1" xr2:uid="{2159B525-BA83-4D8E-86AC-A84E21297510}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{2159B525-BA83-4D8E-86AC-A84E21297510}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="221">
   <si>
     <t>Afzelia africana</t>
   </si>
@@ -698,6 +698,12 @@
   </si>
   <si>
     <t>categories</t>
+  </si>
+  <si>
+    <t>Guibourtia ehie</t>
+  </si>
+  <si>
+    <t>Ceiba pentandra</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1083,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1091,14 +1097,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>106</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>82</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>100</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>90</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>96</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>113</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>121</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>149</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>125</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>108</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>139</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>145</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>147</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>133</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>135</v>
       </c>
@@ -1835,7 +1841,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>137</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>119</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>115</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>117</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>127</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>141</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>129</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>131</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -2274,18 +2280,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4F9DC0-7DF1-4D40-9598-226FD81E450E}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
@@ -2296,7 +2302,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -2395,18 +2401,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2417,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>106</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
@@ -2461,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -2472,7 +2478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
@@ -2483,7 +2489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>82</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -2505,7 +2511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -2571,7 +2577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -2615,7 +2621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>100</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
@@ -2648,18 +2654,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -2670,7 +2676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -2725,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>90</v>
       </c>
@@ -2747,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -2758,7 +2764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>96</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
@@ -2813,7 +2819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>42</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>113</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>121</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>149</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>125</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>108</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>139</v>
       </c>
@@ -2978,7 +2984,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>145</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>147</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>133</v>
       </c>
@@ -3011,7 +3017,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>135</v>
       </c>
@@ -3022,7 +3028,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>137</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>119</v>
       </c>
@@ -3044,7 +3050,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>115</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>117</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>127</v>
       </c>
@@ -3077,7 +3083,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>141</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>129</v>
       </c>
@@ -3099,7 +3105,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>131</v>
       </c>
@@ -3110,344 +3116,344 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C76" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="C77" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="C78" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="C79" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C80" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C80" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C81" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C81" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C82" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="C82" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C83" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C83" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C84" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C84" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C85" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C85" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="C86" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C87" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="C87" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C88" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="C88" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="C89" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C90" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C90" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C91" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="C91" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C92" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C93" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C93" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C94" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C94" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C95" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="C95" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C96" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C96" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C97" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C97" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C98" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C98" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C99" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="C99" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C100" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="C100" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C101" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="C101" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="C102" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C103" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="C103" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C104" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C104" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C105" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="C105" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>152</v>
       </c>
     </row>
